--- a/examples/metabolic_kinetics/template.xlsx
+++ b/examples/metabolic_kinetics/template.xlsx
@@ -16,10 +16,10 @@
     <sheet name="!!Regulations" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reactions'!$A$2:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!References'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Regulations'!$A$2:$D$2</definedName>
@@ -103,20 +103,6 @@
       </text>
     </comment>
     <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -518,7 +504,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -538,10 +524,10 @@
     <t>'!!Regulations'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-05-29 00:17:39'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-02 16:10:23'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -574,7 +560,7 @@
     <t>Regulations</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -637,48 +623,48 @@
     <t>Formula</t>
   </si>
   <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>coupled_to_biomass</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Coupled to biomass</t>
+  </si>
+  <si>
+    <t>ec_number</t>
+  </si>
+  <si>
+    <t>Regex(r'\d+\.\d+\.\d+\.\d+', none=True, default=None, default_cleaned_value=None)</t>
+  </si>
+  <si>
+    <t>EC number</t>
+  </si>
+  <si>
+    <t>equation</t>
+  </si>
+  <si>
+    <t>chem.ReactionEquation</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>gene_rule</t>
+  </si>
+  <si>
+    <t>Gene rule</t>
+  </si>
+  <si>
     <t>id_i_a_f1260</t>
   </si>
   <si>
     <t>Id (iAF1260 [Ref1])</t>
   </si>
   <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>coupled_to_biomass</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Coupled to biomass</t>
-  </si>
-  <si>
-    <t>ec_number</t>
-  </si>
-  <si>
-    <t>Regex(r'\d+\.\d+\.\d+\.\d+', none=True, default=None, default_cleaned_value=None)</t>
-  </si>
-  <si>
-    <t>EC number</t>
-  </si>
-  <si>
-    <t>equation</t>
-  </si>
-  <si>
-    <t>chem.ReactionEquation</t>
-  </si>
-  <si>
-    <t>Equation</t>
-  </si>
-  <si>
-    <t>gene_rule</t>
-  </si>
-  <si>
-    <t>Gene rule</t>
-  </si>
-  <si>
     <t>k_cat_k_ms</t>
   </si>
   <si>
@@ -877,24 +863,24 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+  </si>
+  <si>
+    <t>!Formula</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
   </si>
   <si>
-    <t>!Formula</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
-  </si>
-  <si>
     <t>!Equation</t>
   </si>
   <si>
@@ -925,7 +911,7 @@
     <t>!Coupled to biomass</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -952,7 +938,7 @@
     <t>!PubMed id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-05-29 00:17:39' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -1447,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1610,7 +1596,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>29</v>
@@ -1622,99 +1608,99 @@
         <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>50</v>
@@ -1724,216 +1710,216 @@
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.01" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.01" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.01" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.01" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.01" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.01" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.01" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.01" customHeight="1">
       <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15.01" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>29</v>
@@ -1942,17 +1928,17 @@
         <v>69</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.01" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
@@ -1961,17 +1947,17 @@
         <v>69</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.01" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
@@ -1980,17 +1966,17 @@
         <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.01" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
@@ -1999,17 +1985,17 @@
         <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15.01" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -2018,17 +2004,17 @@
         <v>69</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.01" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>29</v>
@@ -2040,14 +2026,14 @@
         <v>74</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15.01" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
@@ -2056,17 +2042,17 @@
         <v>69</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.01" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>29</v>
@@ -2075,55 +2061,55 @@
         <v>69</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15.01" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15.01" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15.01" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>29</v>
@@ -2132,17 +2118,17 @@
         <v>88</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15.01" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>29</v>
@@ -2151,17 +2137,17 @@
         <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="15.01" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>29</v>
@@ -2170,55 +2156,55 @@
         <v>88</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15.01" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15.01" customHeight="1">
       <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15.01" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>29</v>
@@ -2227,17 +2213,17 @@
         <v>100</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.01" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>29</v>
@@ -2246,17 +2232,17 @@
         <v>100</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="15.01" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
@@ -2268,14 +2254,14 @@
         <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="15.01" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>29</v>
@@ -2284,17 +2270,17 @@
         <v>100</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15.01" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>29</v>
@@ -2306,14 +2292,14 @@
         <v>112</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="15.01" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>29</v>
@@ -2322,42 +2308,23 @@
         <v>100</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A47" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G47"/>
+  <autoFilter ref="A2:G46"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
     <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
-    <hyperlink ref="A11" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A25" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A35" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A10" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
+    <hyperlink ref="A24" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
+    <hyperlink ref="A34" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2450,7 +2417,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2459,106 +2426,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.01" customHeight="1">
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="3" spans="1:3" ht="15.01" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="4" spans="1:3" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="5" spans="1:3" ht="15.01" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="6" spans="1:3" ht="15.01" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="7" spans="1:3" ht="15.01" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="8" spans="1:3" ht="15.01" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="9" spans="1:3" ht="15.01" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="10" spans="1:3" ht="15.01" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="15.01" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.01" customHeight="1">
+    </row>
+    <row r="12" spans="1:3" ht="15.01" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:D2"/>
-  <dataValidations count="4">
+  <autoFilter ref="A2:C2"/>
+  <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id (iAF1260 [Ref1])" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Id (iAF1260 [Ref1])" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B12">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C12">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formula" error="Value must be an chemical formula (e.g. &quot;H2O&quot;)." promptTitle="Formula" prompt="Enter an chemical formula (e.g. &quot;H2O&quot;)." sqref="D3:D12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formula" error="Value must be an chemical formula (e.g. &quot;H2O&quot;)." promptTitle="Formula" prompt="Enter an chemical formula (e.g. &quot;H2O&quot;)." sqref="C3:C12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2582,7 +2532,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2602,7 +2552,7 @@
         <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>

--- a/examples/metabolic_kinetics/template.xlsx
+++ b/examples/metabolic_kinetics/template.xlsx
@@ -16,11 +16,11 @@
     <sheet name="!!Regulations" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!_Schema'!$A$2:$G$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!_Table of contents'!$A$3:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Compartments'!$A$2:$B$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Metabolites'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reactions'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!Reactions'!$A$2:$W$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!References'!$A$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Regulations'!$A$2:$D$2</definedName>
   </definedNames>
@@ -257,11 +257,143 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
+          <t>Enter a string.
+Value must be less than or equal to 4294967295 characters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a string.
+Value must be less than or equal to 4294967295 characters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
           <t>Enter a comma-separated list of values or blank.</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Enter a float or blank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="V2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="W2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="180">
   <si>
     <t>'!!_Schema'!A1</t>
   </si>
@@ -524,10 +656,10 @@
     <t>'!!Regulations'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-02 16:10:23'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-03 17:55:55'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -560,7 +692,7 @@
     <t>Regulations</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -653,6 +785,15 @@
     <t>Equation</t>
   </si>
   <si>
+    <t>est_range_k_ms</t>
+  </si>
+  <si>
+    <t>LongString</t>
+  </si>
+  <si>
+    <t>Estimated Km range (mM)</t>
+  </si>
+  <si>
     <t>gene_rule</t>
   </si>
   <si>
@@ -665,40 +806,97 @@
     <t>Id (iAF1260 [Ref1])</t>
   </si>
   <si>
-    <t>k_cat_k_ms</t>
+    <t>max_est_back_k_cat</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Maximum estimated backward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>max_est_for_k_cat</t>
+  </si>
+  <si>
+    <t>Maximum estimated forward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>max_obs_back_k_cat</t>
+  </si>
+  <si>
+    <t>Maximum measured backward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>max_obs_for_k_cat</t>
+  </si>
+  <si>
+    <t>Maximum measured forward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>min_est_back_k_cat</t>
+  </si>
+  <si>
+    <t>Minimum estimated backward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>min_est_for_k_cat</t>
+  </si>
+  <si>
+    <t>Minimum estimated forward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>min_obs_back_k_cat</t>
+  </si>
+  <si>
+    <t>Minimum measured backward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>min_obs_for_k_cat</t>
+  </si>
+  <si>
+    <t>Minimum measured forward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>obs_k_cat_k_ms</t>
   </si>
   <si>
     <t>ManyToMany('Kinetics', related_name='k_cat_k_m_reactions', cell_dialect='tsv')</t>
   </si>
   <si>
-    <t>kcat/Km (mM^-1 s^-1) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>k_cats</t>
+    <t>Measured kcat/Km (mM^-1 s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>obs_k_cats</t>
   </si>
   <si>
     <t>ManyToMany('Kinetics', related_name='k_cat_reactions', cell_dialect='tsv')</t>
   </si>
   <si>
-    <t>kcat (s^-1) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>k_is</t>
+    <t>Measured kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>obs_k_is</t>
   </si>
   <si>
     <t>ManyToMany('Kinetics', related_name='k_i_reactions', cell_dialect='tsv')</t>
   </si>
   <si>
-    <t>Ki (mM) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>k_ms</t>
+    <t>Measured Ki (mM) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>obs_k_ms</t>
   </si>
   <si>
     <t>ManyToMany('Kinetics', related_name='k_m_reactions', cell_dialect='tsv')</t>
   </si>
   <si>
-    <t>Km (mM) [Ref2, Ref3]</t>
+    <t>Measured Km (mM) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>obs_range_k_ms</t>
+  </si>
+  <si>
+    <t>Measured Km range (mM) [Ref2, Ref3]</t>
   </si>
   <si>
     <t>reversible</t>
@@ -719,9 +917,6 @@
     <t>authors</t>
   </si>
   <si>
-    <t>LongString</t>
-  </si>
-  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -863,19 +1058,19 @@
     <t>Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Formula</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -896,22 +1091,52 @@
     <t>!Gene rule</t>
   </si>
   <si>
-    <t>!Km (mM) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>!kcat (s^-1) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>!kcat/Km (mM^-1 s^-1) [Ref2, Ref3]</t>
-  </si>
-  <si>
-    <t>!Ki (mM) [Ref2, Ref3]</t>
+    <t>!Measured Km (mM) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Measured Km range (mM) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Estimated Km range (mM)</t>
+  </si>
+  <si>
+    <t>!Measured kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Minimum measured forward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Maximum measured forward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Minimum measured backward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Maximum measured backward kcat (s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Minimum estimated forward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>!Maximum estimated forward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>!Minimum estimated backward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>!Maximum estimated backward kcat (s^-1)</t>
+  </si>
+  <si>
+    <t>!Measured kcat/Km (mM^-1 s^-1) [Ref2, Ref3]</t>
+  </si>
+  <si>
+    <t>!Measured Ki (mM) [Ref2, Ref3]</t>
   </si>
   <si>
     <t>!Coupled to biomass</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Title</t>
@@ -938,7 +1163,7 @@
     <t>!PubMed id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-02 16:10:23' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Regulation' name='Regulations' date='2020-06-03 17:55:55' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Reaction</t>
@@ -1433,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1700,17 +1925,17 @@
         <v>39</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -1719,17 +1944,17 @@
         <v>39</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -1738,17 +1963,17 @@
         <v>39</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1757,7 +1982,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>55</v>
@@ -1795,17 +2020,17 @@
         <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.01" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1814,17 +2039,17 @@
         <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.01" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>29</v>
@@ -1833,10 +2058,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1852,7 +2077,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>66</v>
@@ -1871,7 +2096,7 @@
         <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>68</v>
@@ -1884,32 +2109,32 @@
         <v>69</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15.01" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>72</v>
@@ -1919,38 +2144,38 @@
     </row>
     <row r="26" spans="1:7" ht="15.01" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15.01" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -1963,115 +2188,115 @@
         <v>29</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="15.01" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15.01" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15.01" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="15.01" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="15.01" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="15.01" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>26</v>
@@ -2081,66 +2306,66 @@
         <v>27</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="15.01" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15.01" customHeight="1">
       <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15.01" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2153,178 +2378,368 @@
         <v>29</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="15.01" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="D39" s="4" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="15.01" customHeight="1">
       <c r="A40" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="15.01" customHeight="1">
       <c r="A41" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="15.01" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="15.01" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="15.01" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>100</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F44" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="15.01" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="15.01" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
+    <row r="47" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A48" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A54" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A55" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.01" customHeight="1">
+      <c r="A56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G46"/>
+  <autoFilter ref="A2:G56"/>
   <hyperlinks>
     <hyperlink ref="A3" location="'!!Compartments'!A1" tooltip="Click to view compartments" display="'!!Compartments'!A1"/>
     <hyperlink ref="A6" location="'!!Metabolites'!A1" tooltip="Click to view metabolites" display="'!!Metabolites'!A1"/>
     <hyperlink ref="A10" location="'!!Reactions'!A1" tooltip="Click to view reactions" display="'!!Reactions'!A1"/>
-    <hyperlink ref="A24" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
-    <hyperlink ref="A34" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
+    <hyperlink ref="A34" location="'!!References'!A1" tooltip="Click to view references" display="'!!References'!A1"/>
+    <hyperlink ref="A44" location="'!!Regulations'!A1" tooltip="Click to view regulations" display="'!!Regulations'!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2347,13 +2762,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
@@ -2432,20 +2847,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.01" customHeight="1">
@@ -2517,7 +2932,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2526,13 +2941,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="23" width="15.7109375" customWidth="1"/>
+    <col min="24" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.01" customHeight="1">
+    <row r="1" spans="1:23" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2546,49 +2961,89 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.01" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.01" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2602,8 +3057,18 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2617,8 +3082,18 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.01" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -2632,8 +3107,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.01" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -2647,8 +3132,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.01" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2662,8 +3157,18 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.01" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2677,8 +3182,18 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.01" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2692,8 +3207,18 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.01" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2707,8 +3232,18 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.01" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2722,8 +3257,18 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.01" customHeight="1">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" ht="15.01" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2737,11 +3282,21 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:M2"/>
-  <dataValidations count="13">
+  <autoFilter ref="A2:W2"/>
+  <dataValidations count="23">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Id" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." promptTitle="Id" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters.&#10;&#10;Value must be unique." sqref="A3:A12">
       <formula1>255</formula1>
     </dataValidation>
@@ -2762,11 +3317,49 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Gene rule" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Gene rule" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H12">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Km (mM) [Ref2, Ref3]" error="Value must be a comma-separated list of values or blank." promptTitle="Km (mM) [Ref2, Ref3]" prompt="Enter a comma-separated list of values or blank." sqref="I3:I12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="kcat (s^-1) [Ref2, Ref3]" error="Value must be a comma-separated list of values or blank." promptTitle="kcat (s^-1) [Ref2, Ref3]" prompt="Enter a comma-separated list of values or blank." sqref="J3:J12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="kcat/Km (mM^-1 s^-1) [Ref2,  ..." error="Value must be a comma-separated list of values or blank." promptTitle="kcat/Km (mM^-1 s^-1) [Ref2,  ..." prompt="Enter a comma-separated list of values or blank." sqref="K3:K12"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Ki (mM) [Ref2, Ref3]" error="Value must be a comma-separated list of values or blank." promptTitle="Ki (mM) [Ref2, Ref3]" prompt="Enter a comma-separated list of values or blank." sqref="L3:L12"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coupled to biomass" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Coupled to biomass" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="M3:M12">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measured Km (mM) [Ref2, Ref3]" error="Value must be a comma-separated list of values or blank." promptTitle="Measured Km (mM) [Ref2, Ref3]" prompt="Enter a comma-separated list of values or blank." sqref="I3:I12"/>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measured Km range (mM) [Ref2 ..." error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Measured Km range (mM) [Ref2 ..." prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="J3:J12">
+      <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Estimated Km range (mM)" error="Value must be a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." promptTitle="Estimated Km range (mM)" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 4294967295 characters." sqref="K3:K12">
+      <formula1>4294967295</formula1>
+    </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measured kcat (s^-1) [Ref2,  ..." error="Value must be a comma-separated list of values or blank." promptTitle="Measured kcat (s^-1) [Ref2,  ..." prompt="Enter a comma-separated list of values or blank." sqref="L3:L12"/>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum measured forward kca ..." error="Value must be a float or blank." promptTitle="Minimum measured forward kca ..." prompt="Enter a float or blank." sqref="M3:M12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum measured forward kca ..." error="Value must be a float or blank." promptTitle="Maximum measured forward kca ..." prompt="Enter a float or blank." sqref="N3:N12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum measured backward kc ..." error="Value must be a float or blank." promptTitle="Minimum measured backward kc ..." prompt="Enter a float or blank." sqref="O3:O12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum measured backward kc ..." error="Value must be a float or blank." promptTitle="Maximum measured backward kc ..." prompt="Enter a float or blank." sqref="P3:P12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum estimated forward kc ..." error="Value must be a float or blank." promptTitle="Minimum estimated forward kc ..." prompt="Enter a float or blank." sqref="Q3:Q12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum estimated forward kc ..." error="Value must be a float or blank." promptTitle="Maximum estimated forward kc ..." prompt="Enter a float or blank." sqref="R3:R12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Minimum estimated backward k ..." error="Value must be a float or blank." promptTitle="Minimum estimated backward k ..." prompt="Enter a float or blank." sqref="S3:S12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Maximum estimated backward k ..." error="Value must be a float or blank." promptTitle="Maximum estimated backward k ..." prompt="Enter a float or blank." sqref="T3:T12">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measured kcat/Km (mM^-1 s^-1 ..." error="Value must be a comma-separated list of values or blank." promptTitle="Measured kcat/Km (mM^-1 s^-1 ..." prompt="Enter a comma-separated list of values or blank." sqref="U3:U12"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Measured Ki (mM) [Ref2, Ref3]" error="Value must be a comma-separated list of values or blank." promptTitle="Measured Ki (mM) [Ref2, Ref3]" prompt="Enter a comma-separated list of values or blank." sqref="V3:V12"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Coupled to biomass" error="Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="Coupled to biomass" prompt="Select &quot;True&quot; or &quot;False&quot;." sqref="W3:W12">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2792,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2805,31 +3398,31 @@
     </row>
     <row r="2" spans="1:9" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.01" customHeight="1">
@@ -2996,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3004,16 +3597,16 @@
     </row>
     <row r="2" spans="1:4" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.01" customHeight="1">
